--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000014</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏聚利债券</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>36.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007468</t>
+          <t>002983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合A</t>
+          <t>长信国防军工量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007469</t>
+          <t>000014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投策略精选混合C</t>
+          <t>华夏聚利债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>003822</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>中信建投行业轮换混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>39.60</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>39.60</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>008842</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>同泰远见灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>007469</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>中信建投策略精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.82</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>008348</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>中信建投价值甄选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008842</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合A</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008843</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合C</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003822</t>
+          <t>008843</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合A</t>
+          <t>同泰远见灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>86.67</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.67</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005609</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国军工主题混合A</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>66.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>005609</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>富国军工主题混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>115.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>011113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>富国军工主题混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1220,15 +1480,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>84.37</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>84.37</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.58</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.49</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.64</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,757 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2937,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2948,17 +2949,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2968,14 +2989,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.01</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2961</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2984,14 +3027,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.58</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3000,14 +3065,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.49</v>
       </c>
     </row>
     <row r="5">
@@ -3016,14 +3103,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.64</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3032,13 +3141,811 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3828,7 +3829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3839,17 +3840,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3859,14 +3880,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.07</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3875,14 +3918,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.01</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3891,14 +3956,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.58</v>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3907,14 +3994,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.49</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3923,14 +4032,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.64</v>
       </c>
     </row>
     <row r="7">
@@ -3939,13 +4070,903 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>13.44</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>13.07</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>12.01</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>9.58</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>15.49</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>10.64</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.82</v>
       </c>
     </row>
@@ -600,6 +617,1082 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +3586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3307,7 +4400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3705,7 +4798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3875,7 +4968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4121,7 +5214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600372-中航电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>10.23</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>13.44</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>13.07</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>12.01</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>9.58</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>15.49</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>10.64</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.82</v>
       </c>
     </row>
@@ -616,7 +633,1259 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏聚利债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,7 +2961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2696,7 +3965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3586,7 +4855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4400,7 +5669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4798,7 +6067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4968,7 +6237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5212,858 +6481,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001838</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1371</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7260</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏聚利债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2170</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2029</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0859</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0701</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008842</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008843</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>同泰远见灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006845</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>